--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6489693-6D88-B144-9FF3-2A87AD2FE0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F317BA1-61DC-8340-ABF9-EA5997C29312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="60" windowWidth="42400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="70200" yWindow="-18640" windowWidth="42400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>key</t>
   </si>
@@ -296,6 +296,22 @@
   </si>
   <si>
     <t>B_BLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_DOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_DOC_ADMIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_DOC_DIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_DOC_FTP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -460,6 +476,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,10 +487,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,7 +809,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -804,7 +820,7 @@
     <col min="4" max="4" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" style="2" bestFit="1" customWidth="1"/>
@@ -829,14 +845,14 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
@@ -900,7 +916,7 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -909,7 +925,9 @@
       <c r="F5" s="5">
         <v>1005</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="12" spans="1:14">
@@ -1042,7 +1060,9 @@
       <c r="F15" s="5">
         <v>1005</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
         <v>56</v>
@@ -1075,7 +1095,9 @@
       <c r="F16" s="5">
         <v>1010</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
         <v>63</v>
@@ -1108,7 +1130,9 @@
       <c r="F17" s="5">
         <v>1015</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
         <v>60</v>

--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F317BA1-61DC-8340-ABF9-EA5997C29312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B24C61-F6A8-5547-B763-8ECA93EEF573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70200" yWindow="-18640" windowWidth="42400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="67580" yWindow="2940" windowWidth="33060" windowHeight="23160" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>key</t>
   </si>
@@ -182,22 +182,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>License信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>License发证机构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>证书名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>licIdentifier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,10 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>signLic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>signIssuer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,10 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>signKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>89773693-62a5-489a-bcd8-53bb2465ef18</t>
   </si>
   <si>
@@ -312,6 +292,74 @@
   </si>
   <si>
     <t>BLOCK_DOC_FTP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signAt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可证名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久许可 - Permanent License</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero Framework Development</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-FOUNDATION</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -319,6 +367,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -413,10 +464,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -426,11 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -438,12 +489,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -476,20 +523,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -806,55 +851,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="55.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -879,8 +925,11 @@
       <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -905,8 +954,11 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -917,27 +969,30 @@
         <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="5">
-        <v>1005</v>
+        <v>1100</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="15"/>
@@ -951,8 +1006,11 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -978,25 +1036,34 @@
         <v>33</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>40</v>
+      <c r="Q13" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1022,133 +1089,175 @@
         <v>18</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$5</f>
         <v>38c7f6b8-3053-40dd-a9b5-8dbd064dd60d</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>56</v>
+      <c r="I15" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16:B17" si="0">A$5</f>
         <v>38c7f6b8-3053-40dd-a9b5-8dbd064dd60d</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>63</v>
+      <c r="I16" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>38c7f6b8-3053-40dd-a9b5-8dbd064dd60d</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
-        <v>60</v>
+      <c r="I17" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B24C61-F6A8-5547-B763-8ECA93EEF573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDEFD13-DE58-5043-BF20-F56B1C9B3280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67580" yWindow="2940" windowWidth="33060" windowHeight="23160" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="39640" yWindow="920" windowWidth="44100" windowHeight="23160" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -227,54 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZERO-F.DOC.ADMIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-F.DOC.FTP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/admin.lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/admin.lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/admin.ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/ftp.ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/ftp.lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/dir.lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/ftp.lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/dir.lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.document/dir.ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-F.DOC.DIR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B_BLOCK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -360,6 +312,54 @@
   </si>
   <si>
     <t>Z-FOUNDATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.DOC_ADMIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.DOC_DIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.DOC_FTP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_ADMIN/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_ADMIN/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_ADMIN/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_DIR/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_DIR/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_DIR/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_FTP/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_FTP/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.document/DOC_FTP/lic-menu.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -862,13 +862,13 @@
     <col min="1" max="2" width="55.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="69" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -955,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -978,11 +978,11 @@
         <v>1100</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>23</v>
@@ -1036,7 +1036,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>35</v>
@@ -1045,22 +1045,22 @@
         <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1089,7 +1089,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>38</v>
@@ -1098,16 +1098,16 @@
         <v>39</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>40</v>
@@ -1128,38 +1128,38 @@
         <v>46</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="13"/>
       <c r="P15" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1174,38 +1174,38 @@
         <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="13"/>
       <c r="P16" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1220,38 +1220,38 @@
         <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="13"/>
       <c r="P17" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDEFD13-DE58-5043-BF20-F56B1C9B3280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCC7B2-9988-9A4C-82D4-90A9E6E7E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39640" yWindow="920" windowWidth="44100" windowHeight="23160" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62360" yWindow="340" windowWidth="44100" windowHeight="23160" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -854,7 +854,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -975,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="5">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>50</v>
